--- a/mySystem/mySystem/xls/LDPEBag/SOP-MFG-109-R01A 产品内包装记录.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/SOP-MFG-109-R01A 产品内包装记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QMS File-20160301\SOP-MFG-3 生产岗位记录\303，CS   2#制袋岗位记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C Sharp\my\mySystem\mySystem\xls\LDPEBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2079,47 +2079,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>理论产量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -2229,36 +2188,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成品率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>=B/Cx100%</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SOP-MFG-109-R01A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">理论产量C：   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品率=B/Cx100%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2424,6 +2369,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2956,7 +2917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3059,233 +3020,242 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3301,21 +3271,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3600,7 +3555,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3635,42 +3590,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="59" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="66" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
     </row>
     <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -3862,12 +3817,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -3881,10 +3836,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -3898,46 +3853,46 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="55"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="65"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3962,7 +3917,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4006,48 +3961,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="79" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="79" t="s">
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="80"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4111,15 +4066,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="85"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="82"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4133,13 +4088,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="86"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="83"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4197,15 +4152,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="74"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="71"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4219,13 +4174,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="74"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="71"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4239,13 +4194,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="74"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="71"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -4259,15 +4214,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="75" t="s">
+      <c r="J12" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="76"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="73"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4281,13 +4236,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="76"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="73"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -4301,13 +4256,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="76"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="73"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -4321,13 +4276,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="76"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="73"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -4341,35 +4296,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="76"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="73"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="77" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="78"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4445,48 +4400,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="79" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="79" t="s">
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="80"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4550,15 +4505,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="85"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="82"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4572,13 +4527,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="86"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="83"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4614,15 +4569,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="87" t="s">
+      <c r="J8" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="89"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="86"/>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
@@ -4636,15 +4591,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="74"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="71"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4658,13 +4613,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="74"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="71"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4678,13 +4633,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="74"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="71"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -4698,15 +4653,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="75" t="s">
+      <c r="J12" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="76"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="73"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4720,13 +4675,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="76"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="73"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -4740,13 +4695,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="76"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="73"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -4760,13 +4715,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="76"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="73"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -4780,35 +4735,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="76"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="73"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="77" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="78"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4840,14 +4795,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" style="1" customWidth="1"/>
     <col min="4" max="6" width="9.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" customWidth="1"/>
@@ -4858,7 +4813,7 @@
     <col min="12" max="12" width="7.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="4.375" style="1" customWidth="1"/>
     <col min="14" max="14" width="5.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.75" style="1" customWidth="1"/>
     <col min="16" max="16" width="8.375" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
@@ -4880,100 +4835,100 @@
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
       <c r="P1" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="111" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="111" t="s">
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="114" t="s">
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="114"/>
+      <c r="P3" s="117"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="99" t="s">
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="100"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="102" t="s">
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="103" t="s">
+      <c r="P4" s="101" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="116"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="94"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="29" t="s">
         <v>79</v>
       </c>
@@ -4998,296 +4953,296 @@
       <c r="N5" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
     </row>
     <row r="6" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="34">
+      <c r="A6" s="36">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="34">
+      <c r="A7" s="36">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
     </row>
     <row r="8" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34">
+      <c r="A8" s="36">
         <v>3</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="34">
+      <c r="A9" s="36">
         <v>4</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="34">
+      <c r="A10" s="36">
         <v>5</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
     </row>
     <row r="11" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="34">
+      <c r="A11" s="36">
         <v>6</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
     </row>
     <row r="12" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="34">
+      <c r="A12" s="36">
         <v>7</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
     </row>
     <row r="13" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="34">
+      <c r="A13" s="36">
         <v>8</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="34">
+      <c r="A14" s="36">
         <v>9</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
     </row>
     <row r="15" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="34">
+      <c r="A15" s="36">
         <v>10</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
     </row>
     <row r="16" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="34">
+      <c r="A16" s="36">
         <v>11</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
     </row>
     <row r="17" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="34">
+      <c r="A17" s="36">
         <v>12</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="46" t="s">
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="107" t="s">
+      <c r="G18" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+    </row>
+    <row r="19" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-    </row>
-    <row r="19" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="92"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="19">
